--- a/distribution_system_optimization/test_cases/DistributionNetworkData.xlsx
+++ b/distribution_system_optimization/test_cases/DistributionNetworkData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03381850-1C20-48DC-AB1F-C8799A64D9BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84140F60-0AC0-42F1-A757-6ECE3FF023B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseMVA" sheetId="1" r:id="rId1"/>
@@ -3739,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613C24-93E3-497B-B897-7615B98E8E5F}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6947,7 +6947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E72EAE-0677-4152-B7E2-CCE925C28992}">
   <dimension ref="B1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
